--- a/analysis/analysis I/results/logit_robustnesscheck.xlsx
+++ b/analysis/analysis I/results/logit_robustnesscheck.xlsx
@@ -508,20 +508,20 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.7756054851244735</v>
+        <v>-0.7740446882740932</v>
       </c>
       <c r="D2" t="n">
-        <v>3.799688921875144e-08</v>
+        <v>1.014381972628165e-08</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>0.1296161528445552</v>
+        <v>0.1240361053677663</v>
       </c>
       <c r="G2" t="n">
-        <v>9.778956886371501e-16</v>
+        <v>5.722312665522101e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>482.0217572098535</v>
+        <v>513.7628484865151</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9004036744523605</v>
+        <v>0.8606745739449002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0006173636076846561</v>
+        <v>0.0008121973649791408</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1865027338811295</v>
+        <v>0.1794700134134504</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1296161528445552</v>
+        <v>0.1240361053677663</v>
       </c>
       <c r="G3" t="n">
-        <v>9.778956886371501e-16</v>
+        <v>5.722312665522101e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>482.0217572098535</v>
+        <v>513.7628484865151</v>
       </c>
     </row>
     <row r="4">
@@ -558,22 +558,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.460610373672412</v>
+        <v>1.454992801209792</v>
       </c>
       <c r="D4" t="n">
-        <v>1.889113620930177e-08</v>
+        <v>1.159221416912848e-08</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3025396669896158</v>
+        <v>0.3033987356600045</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1296161528445552</v>
+        <v>0.1240361053677663</v>
       </c>
       <c r="G4" t="n">
-        <v>9.778956886371501e-16</v>
+        <v>5.722312665522101e-16</v>
       </c>
       <c r="H4" t="n">
-        <v>482.0217572098535</v>
+        <v>513.7628484865151</v>
       </c>
     </row>
     <row r="5">
@@ -588,20 +588,20 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.947380322748837</v>
+        <v>-1.971864361875294</v>
       </c>
       <c r="D5" t="n">
-        <v>2.025852369350373e-20</v>
+        <v>4.172593472209768e-22</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.1523837488840555</v>
+        <v>0.1538616583414731</v>
       </c>
       <c r="G5" t="n">
-        <v>2.909916580139605e-16</v>
+        <v>3.801016667236706e-17</v>
       </c>
       <c r="H5" t="n">
-        <v>415.828375882626</v>
+        <v>433.8870742471804</v>
       </c>
     </row>
     <row r="6">
@@ -612,22 +612,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9004036744523602</v>
+        <v>0.8606745739449002</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0006173636076846573</v>
+        <v>0.0008121973649791368</v>
       </c>
       <c r="E6" t="n">
-        <v>0.153246629387097</v>
+        <v>0.1433570351840083</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1523837488840555</v>
+        <v>0.1538616583414731</v>
       </c>
       <c r="G6" t="n">
-        <v>2.909916580139605e-16</v>
+        <v>3.801016667236706e-17</v>
       </c>
       <c r="H6" t="n">
-        <v>415.828375882626</v>
+        <v>433.8870742471804</v>
       </c>
     </row>
     <row r="7">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.528307661510246</v>
+        <v>1.582136205997041</v>
       </c>
       <c r="D7" t="n">
-        <v>3.185078575098461e-09</v>
+        <v>4.421611015963398e-10</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2601144402652206</v>
+        <v>0.2635262648801488</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1523837488840555</v>
+        <v>0.1538616583414731</v>
       </c>
       <c r="G7" t="n">
-        <v>2.909916580139605e-16</v>
+        <v>3.801016667236706e-17</v>
       </c>
       <c r="H7" t="n">
-        <v>415.828375882626</v>
+        <v>433.8870742471804</v>
       </c>
     </row>
     <row r="8">
@@ -668,20 +668,20 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.100758396255757</v>
+        <v>-2.167774990526206</v>
       </c>
       <c r="D8" t="n">
-        <v>2.262039831729044e-21</v>
+        <v>2.520883536616787e-23</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>0.1929386138076779</v>
+        <v>0.1959780714508538</v>
       </c>
       <c r="G8" t="n">
-        <v>5.333234601433141e-21</v>
+        <v>3.181699224512706e-22</v>
       </c>
       <c r="H8" t="n">
-        <v>408.3869584590167</v>
+        <v>424.1952452485511</v>
       </c>
     </row>
     <row r="9">
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.460610373672412</v>
+        <v>1.45499280120979</v>
       </c>
       <c r="D9" t="n">
-        <v>1.889113620930151e-08</v>
+        <v>1.159221416912848e-08</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2434755427807018</v>
+        <v>0.236229389377347</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1929386138076779</v>
+        <v>0.1959780714508538</v>
       </c>
       <c r="G9" t="n">
-        <v>5.333234601433141e-21</v>
+        <v>3.181699224512706e-22</v>
       </c>
       <c r="H9" t="n">
-        <v>408.3869584590167</v>
+        <v>424.1952452485511</v>
       </c>
     </row>
     <row r="10">
@@ -718,22 +718,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.528307661510246</v>
+        <v>1.582136205997041</v>
       </c>
       <c r="D10" t="n">
-        <v>3.185078575098438e-09</v>
+        <v>4.421611015963398e-10</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2547603003027619</v>
+        <v>0.2568721092940905</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1929386138076779</v>
+        <v>0.1959780714508538</v>
       </c>
       <c r="G10" t="n">
-        <v>5.333234601433141e-21</v>
+        <v>3.181699224512706e-22</v>
       </c>
       <c r="H10" t="n">
-        <v>408.3869584590167</v>
+        <v>424.1952452485511</v>
       </c>
     </row>
     <row r="11">
@@ -748,20 +748,20 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.8397110995339545</v>
+        <v>-0.8900051009717793</v>
       </c>
       <c r="D11" t="n">
-        <v>7.571515418025806e-07</v>
+        <v>5.721655932460931e-08</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0.3080880092635033</v>
+        <v>0.303362629420451</v>
       </c>
       <c r="G11" t="n">
-        <v>5.272748395770334e-35</v>
+        <v>7.38288657780179e-37</v>
       </c>
       <c r="H11" t="n">
-        <v>388.7758041591774</v>
+        <v>416.9552845425849</v>
       </c>
     </row>
     <row r="12">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1844457403459805</v>
+        <v>0.1255517571845335</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4972212204408651</v>
+        <v>0.6335390716935951</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02925622510533518</v>
+        <v>0.02009232868514881</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3080880092635033</v>
+        <v>0.303362629420451</v>
       </c>
       <c r="G12" t="n">
-        <v>5.272748395770334e-35</v>
+        <v>7.38288657780179e-37</v>
       </c>
       <c r="H12" t="n">
-        <v>388.7758041591774</v>
+        <v>416.9552845425849</v>
       </c>
     </row>
     <row r="13">
@@ -798,22 +798,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.447925502098296</v>
+        <v>1.51663835549659</v>
       </c>
       <c r="D13" t="n">
-        <v>1.84761401011354e-05</v>
+        <v>3.734086767058128e-06</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2296655609703076</v>
+        <v>0.2427110302435085</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3080880092635033</v>
+        <v>0.303362629420451</v>
       </c>
       <c r="G13" t="n">
-        <v>5.272748395770334e-35</v>
+        <v>7.38288657780179e-37</v>
       </c>
       <c r="H13" t="n">
-        <v>388.7758041591774</v>
+        <v>416.9552845425849</v>
       </c>
     </row>
     <row r="14">
@@ -824,22 +824,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.294480459480466</v>
+        <v>3.192771567223785</v>
       </c>
       <c r="D14" t="n">
-        <v>1.448507794401584e-11</v>
+        <v>1.543663980488988e-12</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5225605196785391</v>
+        <v>0.5109463792766448</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3080880092635033</v>
+        <v>0.303362629420451</v>
       </c>
       <c r="G14" t="n">
-        <v>5.272748395770334e-35</v>
+        <v>7.38288657780179e-37</v>
       </c>
       <c r="H14" t="n">
-        <v>388.7758041591774</v>
+        <v>416.9552845425849</v>
       </c>
     </row>
   </sheetData>
